--- a/BAB 4/DFD/Checklist.xlsx
+++ b/BAB 4/DFD/Checklist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KULIAH\SMT 8\MY_SKRIPSI\BAB 4\DFD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KULIAH\MY_SKRIPSI\BAB 4\DFD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
   <si>
     <t>Mahasiswa</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>Data mahasiswa</t>
+  </si>
+  <si>
+    <t>Password baru</t>
+  </si>
+  <si>
+    <t>password default</t>
   </si>
 </sst>
 </file>
@@ -204,7 +210,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1246,8 +1251,8 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1305,6 +1310,9 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1427,6 +1435,9 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
+      <c r="B23" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C23" s="1" t="s">
         <v>20</v>
       </c>
@@ -1465,73 +1476,76 @@
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
+      <c r="B38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1539,52 +1553,55 @@
       <c r="A43" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
-      <c r="C44" t="s">
+      <c r="B44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
-      <c r="C46" t="s">
+      <c r="C46" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
         <v>14</v>
       </c>
     </row>

--- a/BAB 4/DFD/Checklist.xlsx
+++ b/BAB 4/DFD/Checklist.xlsx
@@ -171,13 +171,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1251,8 +1252,8 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,212 +1275,236 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="C26" s="1" t="s">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="C27" s="1" t="s">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="C28" s="1" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1487,7 +1512,7 @@
       <c r="B32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1495,7 +1520,7 @@
       <c r="B33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1503,57 +1528,67 @@
       <c r="B34" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C39" s="1" t="s">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="1" t="s">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -1562,7 +1597,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -1571,37 +1606,43 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
-      <c r="C45" s="1" t="s">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
-      <c r="C46" s="1" t="s">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-      <c r="C47" s="1" t="s">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
-      <c r="C48" s="1" t="s">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
-      <c r="C49" s="1" t="s">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
-      <c r="C50" s="1" t="s">
+      <c r="B50" s="4"/>
+      <c r="C50" s="4" t="s">
         <v>14</v>
       </c>
     </row>

--- a/BAB 4/DFD/Checklist.xlsx
+++ b/BAB 4/DFD/Checklist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KULIAH\MY_SKRIPSI\BAB 4\DFD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KULIAH\SMT 8\MY_SKRIPSI\BAB 4\DFD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -145,18 +145,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -171,14 +165,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1252,259 +1245,236 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="26.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
+      <c r="A7" s="2"/>
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
+      <c r="A8" s="2"/>
+      <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
+      <c r="A9" s="2"/>
+      <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
+      <c r="A10" s="2"/>
+      <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
+      <c r="A11" s="2"/>
+      <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
+      <c r="A12" s="2"/>
+      <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
+      <c r="A13" s="2"/>
+      <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-    </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4" t="s">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4" t="s">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4" t="s">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4" t="s">
+      <c r="A24" s="2"/>
+      <c r="C24" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4" t="s">
+      <c r="A25" s="2"/>
+      <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4" t="s">
+      <c r="A26" s="2"/>
+      <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4" t="s">
+      <c r="A27" s="2"/>
+      <c r="C27" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4" t="s">
+      <c r="A28" s="2"/>
+      <c r="C28" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-    </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1512,7 +1482,7 @@
       <c r="B32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1520,7 +1490,7 @@
       <c r="B33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1528,67 +1498,57 @@
       <c r="B34" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-    </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -1596,8 +1556,8 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="4" t="s">
+      <c r="A44" s="3"/>
+      <c r="B44" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -1605,44 +1565,38 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4" t="s">
+      <c r="A45" s="3"/>
+      <c r="C45" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4" t="s">
+      <c r="A46" s="3"/>
+      <c r="C46" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4" t="s">
+      <c r="A47" s="3"/>
+      <c r="C47" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4" t="s">
+      <c r="A48" s="3"/>
+      <c r="C48" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4" t="s">
+      <c r="A49" s="3"/>
+      <c r="C49" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4" t="s">
+      <c r="A50" s="3"/>
+      <c r="C50" s="1" t="s">
         <v>14</v>
       </c>
     </row>
